--- a/Информация о проходах/Телегин Н. М..xlsx
+++ b/Информация о проходах/Телегин Н. М..xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,70 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>2024-05-15 10:59:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-05-15 11:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2024-06-01 05:56:29</t>
         </is>
       </c>

--- a/Информация о проходах/Телегин Н. М..xlsx
+++ b/Информация о проходах/Телегин Н. М..xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-15 10:59:55</t>
+          <t>2024-06-01 05:56:29</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-15 11:00:03</t>
+          <t>2024-06-08 06:51:16</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,263 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-01 05:56:29</t>
+          <t>2024-06-08 06:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-06-08 06:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-08 06:53:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-08 06:54:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-13 05:31:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-13 05:31:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-06-21 04:12:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-25 04:13:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Телегин Н. М.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сторож (вахтер)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-29 05:34:41</t>
         </is>
       </c>
     </row>
